--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8862041-878B-104F-9EAF-22BB7EB4D5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8AEEBE-50B7-4B45-ADC6-E520CF9BD8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="1080" windowWidth="24840" windowHeight="13440" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
+    <workbookView xWindow="8440" yWindow="760" windowWidth="24840" windowHeight="13440" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$76</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1137,11 +1137,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F248D098-89B3-CC41-B3AD-EB932F8A3134}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD77"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">

--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8AEEBE-50B7-4B45-ADC6-E520CF9BD8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E05F378-4EA6-A34A-8F04-E87E5FA660B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="760" windowWidth="24840" windowHeight="13440" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
+    <workbookView xWindow="880" yWindow="1400" windowWidth="24840" windowHeight="13440" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mapeamento" sheetId="1" r:id="rId1"/>
+    <sheet name="Equivalência" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapeamento!$K$1:$K$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="184">
   <si>
     <t>Nome Organização Source</t>
   </si>
@@ -620,13 +621,19 @@
   </si>
   <si>
     <t>Vacina COVID-19 PFIZER - COMIRNATY BIVALENTE, RNAm</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -686,8 +693,15 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,6 +711,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -819,6 +839,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1137,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F248D098-89B3-CC41-B3AD-EB932F8A3134}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1194,7 +1231,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +1269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1266,7 +1303,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="272" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -1304,7 +1341,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1342,7 +1379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -1380,7 +1417,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1418,7 +1455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1456,7 +1493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
@@ -1494,7 +1531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
@@ -1532,7 +1569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
@@ -1570,7 +1607,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -1608,7 +1645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -1646,7 +1683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="221" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -1684,7 +1721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1722,7 +1759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="372" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
@@ -1760,7 +1797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
@@ -1798,7 +1835,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
@@ -1836,7 +1873,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>5</v>
       </c>
@@ -1874,7 +1911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
@@ -1912,7 +1949,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>5</v>
       </c>
@@ -1950,7 +1987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="340" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
@@ -1988,7 +2025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="323" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>5</v>
       </c>
@@ -2026,7 +2063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -2064,7 +2101,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="404" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>5</v>
       </c>
@@ -2102,7 +2139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
@@ -2140,7 +2177,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
@@ -2178,7 +2215,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>5</v>
       </c>
@@ -2216,7 +2253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="272" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>5</v>
       </c>
@@ -2254,7 +2291,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>5</v>
       </c>
@@ -2292,7 +2329,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
@@ -2330,7 +2367,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="289" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -2368,7 +2405,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="272" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -2406,7 +2443,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="289" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
@@ -2444,7 +2481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="340" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>5</v>
       </c>
@@ -2482,7 +2519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>5</v>
       </c>
@@ -2520,7 +2557,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
@@ -2558,7 +2595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
@@ -2596,7 +2633,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>5</v>
       </c>
@@ -2634,7 +2671,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>5</v>
       </c>
@@ -2672,7 +2709,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>5</v>
       </c>
@@ -2710,7 +2747,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="238" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -2748,7 +2785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>5</v>
       </c>
@@ -2786,7 +2823,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>5</v>
       </c>
@@ -2824,7 +2861,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>5</v>
       </c>
@@ -2862,7 +2899,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -2890,7 +2927,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>5</v>
       </c>
@@ -2928,7 +2965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>5</v>
       </c>
@@ -3004,7 +3041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>5</v>
       </c>
@@ -3042,7 +3079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="238" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -3080,7 +3117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>5</v>
       </c>
@@ -3118,7 +3155,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>5</v>
       </c>
@@ -3156,7 +3193,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>5</v>
       </c>
@@ -3194,7 +3231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>5</v>
       </c>
@@ -3232,7 +3269,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>5</v>
       </c>
@@ -3270,7 +3307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>165</v>
       </c>
@@ -3308,7 +3345,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>5</v>
       </c>
@@ -3346,7 +3383,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>5</v>
       </c>
@@ -3384,7 +3421,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>5</v>
       </c>
@@ -3422,7 +3459,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>5</v>
       </c>
@@ -3498,7 +3535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>5</v>
       </c>
@@ -3536,7 +3573,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>5</v>
       </c>
@@ -3574,7 +3611,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>5</v>
       </c>
@@ -3612,7 +3649,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>5</v>
       </c>
@@ -3650,7 +3687,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>5</v>
       </c>
@@ -3688,7 +3725,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>5</v>
       </c>
@@ -3726,7 +3763,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>5</v>
       </c>
@@ -3764,7 +3801,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>5</v>
       </c>
@@ -3822,4 +3859,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4040E8E-EB16-2240-A9EA-A7E4A1B5F002}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27">
+        <v>3</v>
+      </c>
+      <c r="C2" s="24">
+        <f>3/99</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27">
+        <v>32</v>
+      </c>
+      <c r="C3" s="24">
+        <f>B3/99</f>
+        <v>0.32323232323232326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27">
+        <v>40</v>
+      </c>
+      <c r="C5" s="24">
+        <f>B5/99</f>
+        <v>0.40404040404040403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27">
+        <v>24</v>
+      </c>
+      <c r="C6" s="24">
+        <f>B6/99</f>
+        <v>0.24242424242424243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="28">
+        <f>SUM(B2:B6)</f>
+        <v>99</v>
+      </c>
+      <c r="C7" s="24">
+        <f>SUM(C2:C6)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E05F378-4EA6-A34A-8F04-E87E5FA660B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80A6E85-FDD0-DE4F-9D6D-0EDF97BAE218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1400" windowWidth="24840" windowHeight="13440" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
+    <workbookView xWindow="880" yWindow="1400" windowWidth="27380" windowHeight="15860" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapeamento" sheetId="1" r:id="rId1"/>
@@ -822,6 +822,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -839,23 +856,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1174,13 +1174,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F248D098-89B3-CC41-B3AD-EB932F8A3134}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
@@ -2862,19 +2863,19 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="18">
+      <c r="A46" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="25">
         <v>70</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="20" t="s">
+      <c r="D46" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="27" t="s">
         <v>22</v>
       </c>
       <c r="F46" s="7" t="s">
@@ -2900,11 +2901,11 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="21"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="28"/>
       <c r="F47" s="7" t="s">
         <v>7</v>
       </c>
@@ -3875,84 +3876,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="16" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="23">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="21">
         <v>3</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="18">
         <f>3/99</f>
         <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="23">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="21">
         <v>32</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="18">
         <f>B3/99</f>
         <v>0.32323232323232326</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="21">
         <v>0</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="21">
         <v>40</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="18">
         <f>B5/99</f>
         <v>0.40404040404040403</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
         <v>24</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="18">
         <f>B6/99</f>
         <v>0.24242424242424243</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="22">
         <f>SUM(B2:B6)</f>
         <v>99</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="18">
         <f>SUM(C2:C6)</f>
         <v>1</v>
       </c>

--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80A6E85-FDD0-DE4F-9D6D-0EDF97BAE218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8EFC65-10A1-0648-BCD5-DEA92B5696F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1400" windowWidth="27380" windowHeight="15860" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
+    <workbookView xWindow="180" yWindow="760" windowWidth="27380" windowHeight="15860" activeTab="2" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapeamento" sheetId="1" r:id="rId1"/>
-    <sheet name="Equivalência" sheetId="2" r:id="rId2"/>
+    <sheet name="Equivalencia 5" sheetId="3" r:id="rId2"/>
+    <sheet name="SNOMED CORE ONLY" sheetId="4" r:id="rId3"/>
+    <sheet name="Equivalência" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapeamento!$K$1:$K$76</definedName>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="229">
   <si>
     <t>Nome Organização Source</t>
   </si>
@@ -266,12 +268,6 @@
     <t>Vacina pneumo 10</t>
   </si>
   <si>
-    <t>1801000221105</t>
-  </si>
-  <si>
-    <t>Vaccine product containing only Streptococcus pneumoniae capsular polysaccharide antigen conjugated (medicinal product)</t>
-  </si>
-  <si>
     <t>Vacina polio oral</t>
   </si>
   <si>
@@ -572,9 +568,6 @@
     <t>Vaccine product containing Yellow fever virus antigen (medicinal product)</t>
   </si>
   <si>
-    <t>bri+A92:E109munobiologico</t>
-  </si>
-  <si>
     <t>Vacina Covid-19 ASTRAZENECA/FIOCRUZ - COVISHIELD, recombinante</t>
   </si>
   <si>
@@ -627,13 +620,157 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>871772009</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Influenza A virus subtype H1N1 antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>1 - Equivalência de significado, léxica e também conceitual.</t>
+  </si>
+  <si>
+    <t>3 - O conceito fonte é mais amplo e tem menos significado específico que o conceito/termo alvo.</t>
+  </si>
+  <si>
+    <t>5 - Nenhum mapeamento é possível. Não foi encontrado no alvo um conceito com algum grau de equivalência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1119349007 </t>
+  </si>
+  <si>
+    <t>Vaccine product containing only severe acute respiratory syndrome coronavirus 2 messenger ribonucleic acid (medicinal product)</t>
+  </si>
+  <si>
+    <t>Soro antiaracnídico</t>
+  </si>
+  <si>
+    <t>Soro antiescorpiônico</t>
+  </si>
+  <si>
+    <t>Soro antielapídico</t>
+  </si>
+  <si>
+    <t>Soro antibotrópico (pentavalente)</t>
+  </si>
+  <si>
+    <t>Soro antibotrópico (pentavalente) e anticrotálico</t>
+  </si>
+  <si>
+    <t>Soro antibotrópico (pentavalente) e antilaquético</t>
+  </si>
+  <si>
+    <t>Soro antiloxoscélico (trivalente)</t>
+  </si>
+  <si>
+    <t>Soro antilonômico</t>
+  </si>
+  <si>
+    <t>Vacina Varíola Bavarian Nordic</t>
+  </si>
+  <si>
+    <t>Product containing only Latrodectus mactans antivenom (medicinal product)</t>
+  </si>
+  <si>
+    <t>BR Vaccine List - translated</t>
+  </si>
+  <si>
+    <t>SNOMEC CT Core concept ID</t>
+  </si>
+  <si>
+    <t>Equivalence of mapping</t>
+  </si>
+  <si>
+    <t>BCG vaccine</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Mycobacterium bovis antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>anticrotalic serum</t>
+  </si>
+  <si>
+    <t>Product containing only polyvalent crotalidae antivenom (medicinal product)oduct containing only polyvalent crotalidae antivenom (medicinal product)</t>
+  </si>
+  <si>
+    <t>Chicken embryo rabies vaccine</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Rabies lyssavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Anti-varicella human immunoglobulin</t>
+  </si>
+  <si>
+    <t>710704003 </t>
+  </si>
+  <si>
+    <t>Vaccine Immunoglobulin M antibody to Varicella zoster virus (substance)product containing only Human alphaherpesvirus 3 recombinant surface glycoprotein E antigen (medicinal product)|</t>
+  </si>
+  <si>
+    <t>Anti-hepatitis B human immunoglobulin</t>
+  </si>
+  <si>
+    <t>Antibody to hepatitis B virus (substance)</t>
+  </si>
+  <si>
+    <t>Human rabies immunoglobulin</t>
+  </si>
+  <si>
+    <t>Rabies human immune globulin (substance)||</t>
+  </si>
+  <si>
+    <t>latrodectus serum</t>
+  </si>
+  <si>
+    <t>Product containing Latrodectus mactans antivenom (medicinal product)|</t>
+  </si>
+  <si>
+    <t>Measles, rubella vaccine</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Measles morbillivirus and Rubella virus antigens (medicinal product)|</t>
+  </si>
+  <si>
+    <t>Antibotulinum serum (trivalent)</t>
+  </si>
+  <si>
+    <t>Product containing only botulinum antitoxin (medicinal product)</t>
+  </si>
+  <si>
+    <t>AB antibotulinum serum (bivalent)</t>
+  </si>
+  <si>
+    <t>herpes zoster vaccine</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Human alphaherpesvirus 3 antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Herpes-Zoster vaccine, recombinant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1156183006 </t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Human alphaherpesvirus 3 recombinant surface glycoprotein E antigen (medicinal product)|</t>
+  </si>
+  <si>
+    <t>1861000221106</t>
+  </si>
+  <si>
+    <t>777252008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -700,8 +837,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,8 +895,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -770,12 +951,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -856,6 +1113,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1174,21 +1497,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F248D098-89B3-CC41-B3AD-EB932F8A3134}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="4" max="4" width="27.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1534,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="32">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1232,7 +1556,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="60">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1270,7 +1594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="51">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1304,7 +1628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="102">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -1342,7 +1666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="51">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1380,7 +1704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="51">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -1418,7 +1742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="51">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1456,7 +1780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="51">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1494,7 +1818,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="51">
       <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
@@ -1532,7 +1856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="102">
       <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
@@ -1570,7 +1894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="102">
       <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
@@ -1608,7 +1932,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="68">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -1646,7 +1970,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="102">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -1684,7 +2008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="102">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -1704,10 +2028,10 @@
         <v>7</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
@@ -1722,7 +2046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="68">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1730,22 +2054,22 @@
         <v>28</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
@@ -1760,7 +2084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="119">
       <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
@@ -1768,22 +2092,22 @@
         <v>29</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>26</v>
@@ -1798,7 +2122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="51">
       <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
@@ -1806,22 +2130,22 @@
         <v>30</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>26</v>
@@ -1833,10 +2157,10 @@
         <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="102">
       <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
@@ -1844,22 +2168,22 @@
         <v>33</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>26</v>
@@ -1871,10 +2195,10 @@
         <v>33</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="51">
       <c r="A20" s="7" t="s">
         <v>5</v>
       </c>
@@ -1882,23 +2206,23 @@
         <v>34</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="I20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1906,13 +2230,13 @@
         <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="51">
       <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
@@ -1920,23 +2244,23 @@
         <v>35</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>83</v>
-      </c>
       <c r="I21" s="7" t="s">
         <v>26</v>
       </c>
@@ -1944,13 +2268,13 @@
         <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="51">
       <c r="A22" s="11" t="s">
         <v>5</v>
       </c>
@@ -1958,22 +2282,22 @@
         <v>37</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>26</v>
@@ -1988,7 +2312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="102">
       <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
@@ -1996,22 +2320,22 @@
         <v>39</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>89</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>26</v>
@@ -2026,7 +2350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="85">
       <c r="A24" s="7" t="s">
         <v>5</v>
       </c>
@@ -2034,22 +2358,22 @@
         <v>40</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="30" t="s">
         <v>90</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>26</v>
@@ -2064,7 +2388,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="51">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -2072,22 +2396,22 @@
         <v>41</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>26</v>
@@ -2102,7 +2426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="119">
       <c r="A26" s="7" t="s">
         <v>5</v>
       </c>
@@ -2110,22 +2434,22 @@
         <v>43</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>26</v>
@@ -2140,7 +2464,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="51">
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
@@ -2148,7 +2472,7 @@
         <v>44</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>21</v>
@@ -2160,10 +2484,10 @@
         <v>7</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>26</v>
@@ -2172,13 +2496,13 @@
         <v>22</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="51">
       <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
@@ -2186,23 +2510,23 @@
         <v>45</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="I28" s="7" t="s">
         <v>26</v>
       </c>
@@ -2210,13 +2534,13 @@
         <v>22</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="85">
       <c r="A29" s="7" t="s">
         <v>5</v>
       </c>
@@ -2224,37 +2548,37 @@
         <v>46</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>105</v>
-      </c>
       <c r="I29" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="102">
       <c r="A30" s="7" t="s">
         <v>5</v>
       </c>
@@ -2262,22 +2586,22 @@
         <v>47</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>26</v>
@@ -2289,10 +2613,10 @@
         <v>33</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="102">
       <c r="A31" s="7" t="s">
         <v>5</v>
       </c>
@@ -2300,7 +2624,7 @@
         <v>51</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>21</v>
@@ -2312,10 +2636,10 @@
         <v>7</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>26</v>
@@ -2327,10 +2651,10 @@
         <v>33</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="102">
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
@@ -2338,7 +2662,7 @@
         <v>55</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>21</v>
@@ -2350,10 +2674,10 @@
         <v>7</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>26</v>
@@ -2365,10 +2689,10 @@
         <v>33</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="85">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -2376,37 +2700,37 @@
         <v>56</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="I33" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="11" t="s">
-        <v>28</v>
+      <c r="K33" t="s">
+        <v>184</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="102">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -2414,7 +2738,7 @@
         <v>57</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>21</v>
@@ -2426,10 +2750,10 @@
         <v>7</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>26</v>
@@ -2441,10 +2765,10 @@
         <v>33</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="85">
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
@@ -2452,22 +2776,22 @@
         <v>58</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="31" t="s">
         <v>115</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>26</v>
@@ -2482,7 +2806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="102">
       <c r="A36" s="7" t="s">
         <v>5</v>
       </c>
@@ -2490,22 +2814,22 @@
         <v>59</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>26</v>
@@ -2520,7 +2844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="102">
       <c r="A37" s="7" t="s">
         <v>5</v>
       </c>
@@ -2528,22 +2852,22 @@
         <v>60</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>26</v>
@@ -2555,10 +2879,10 @@
         <v>33</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="51">
       <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
@@ -2566,22 +2890,22 @@
         <v>61</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>26</v>
@@ -2596,7 +2920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="102">
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
@@ -2604,22 +2928,22 @@
         <v>62</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>26</v>
@@ -2631,10 +2955,10 @@
         <v>33</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="102">
       <c r="A40" s="7" t="s">
         <v>5</v>
       </c>
@@ -2642,7 +2966,7 @@
         <v>63</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>21</v>
@@ -2654,10 +2978,10 @@
         <v>7</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>26</v>
@@ -2669,10 +2993,10 @@
         <v>33</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="102">
       <c r="A41" s="7" t="s">
         <v>5</v>
       </c>
@@ -2680,7 +3004,7 @@
         <v>64</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>21</v>
@@ -2692,10 +3016,10 @@
         <v>7</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>26</v>
@@ -2707,10 +3031,10 @@
         <v>33</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="102">
       <c r="A42" s="7" t="s">
         <v>5</v>
       </c>
@@ -2718,7 +3042,7 @@
         <v>65</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>21</v>
@@ -2730,10 +3054,10 @@
         <v>7</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>26</v>
@@ -2745,10 +3069,10 @@
         <v>33</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="68">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -2756,22 +3080,22 @@
         <v>66</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>26</v>
@@ -2786,7 +3110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="102">
       <c r="A44" s="7" t="s">
         <v>5</v>
       </c>
@@ -2794,7 +3118,7 @@
         <v>67</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>21</v>
@@ -2806,10 +3130,10 @@
         <v>7</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>26</v>
@@ -2821,10 +3145,10 @@
         <v>33</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="102">
       <c r="A45" s="7" t="s">
         <v>5</v>
       </c>
@@ -2832,22 +3156,22 @@
         <v>68</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H45" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>26</v>
@@ -2859,10 +3183,10 @@
         <v>33</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="51">
       <c r="A46" s="23" t="s">
         <v>5</v>
       </c>
@@ -2870,23 +3194,23 @@
         <v>70</v>
       </c>
       <c r="C46" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H46" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>139</v>
-      </c>
       <c r="I46" s="7" t="s">
         <v>26</v>
       </c>
@@ -2894,13 +3218,13 @@
         <v>22</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="51">
       <c r="A47" s="24"/>
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
@@ -2910,10 +3234,10 @@
         <v>7</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>26</v>
@@ -2928,7 +3252,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="51">
       <c r="A48" s="7" t="s">
         <v>5</v>
       </c>
@@ -2936,22 +3260,22 @@
         <v>71</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H48" s="14" t="s">
         <v>142</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>144</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>26</v>
@@ -2966,7 +3290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="51">
       <c r="A49" s="7" t="s">
         <v>5</v>
       </c>
@@ -2974,7 +3298,7 @@
         <v>72</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>21</v>
@@ -2986,10 +3310,10 @@
         <v>7</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>26</v>
@@ -3004,7 +3328,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="17">
       <c r="A50" s="7" t="s">
         <v>5</v>
       </c>
@@ -3012,7 +3336,7 @@
         <v>73</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>21</v>
@@ -3036,13 +3360,13 @@
         <v>23</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="68">
       <c r="A51" s="7" t="s">
         <v>5</v>
       </c>
@@ -3050,22 +3374,22 @@
         <v>74</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H51" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>26</v>
@@ -3080,7 +3404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="68">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -3088,22 +3412,22 @@
         <v>75</v>
       </c>
       <c r="C52" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H52" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>26</v>
@@ -3118,7 +3442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="102">
       <c r="A53" s="7" t="s">
         <v>5</v>
       </c>
@@ -3126,7 +3450,7 @@
         <v>77</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>21</v>
@@ -3138,10 +3462,10 @@
         <v>7</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>26</v>
@@ -3153,10 +3477,10 @@
         <v>33</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="51">
       <c r="A54" s="7" t="s">
         <v>5</v>
       </c>
@@ -3164,22 +3488,22 @@
         <v>78</v>
       </c>
       <c r="C54" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H54" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>26</v>
@@ -3194,7 +3518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="51">
       <c r="A55" s="7" t="s">
         <v>5</v>
       </c>
@@ -3202,22 +3526,22 @@
         <v>82</v>
       </c>
       <c r="C55" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>26</v>
@@ -3232,7 +3556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="102">
       <c r="A56" s="7" t="s">
         <v>5</v>
       </c>
@@ -3240,7 +3564,7 @@
         <v>83</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>21</v>
@@ -3252,10 +3576,10 @@
         <v>7</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>26</v>
@@ -3267,10 +3591,10 @@
         <v>33</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="102">
       <c r="A57" s="7" t="s">
         <v>5</v>
       </c>
@@ -3278,22 +3602,22 @@
         <v>84</v>
       </c>
       <c r="C57" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H57" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>26</v>
@@ -3308,15 +3632,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="102">
       <c r="A58" s="7" t="s">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="B58" s="8">
         <v>85</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>21</v>
@@ -3328,10 +3652,10 @@
         <v>7</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>26</v>
@@ -3343,10 +3667,10 @@
         <v>33</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="102">
       <c r="A59" s="7" t="s">
         <v>5</v>
       </c>
@@ -3354,7 +3678,7 @@
         <v>86</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>21</v>
@@ -3366,10 +3690,10 @@
         <v>7</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>26</v>
@@ -3381,10 +3705,10 @@
         <v>33</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="102">
       <c r="A60" s="7" t="s">
         <v>5</v>
       </c>
@@ -3392,7 +3716,7 @@
         <v>87</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>21</v>
@@ -3404,10 +3728,10 @@
         <v>7</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>26</v>
@@ -3419,10 +3743,10 @@
         <v>33</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="102">
       <c r="A61" s="7" t="s">
         <v>5</v>
       </c>
@@ -3430,7 +3754,7 @@
         <v>88</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>21</v>
@@ -3442,10 +3766,10 @@
         <v>7</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>26</v>
@@ -3457,10 +3781,10 @@
         <v>33</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="102">
       <c r="A62" s="7" t="s">
         <v>5</v>
       </c>
@@ -3468,7 +3792,7 @@
         <v>89</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>21</v>
@@ -3480,10 +3804,10 @@
         <v>7</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>26</v>
@@ -3495,10 +3819,10 @@
         <v>33</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="34">
       <c r="A63" s="7" t="s">
         <v>5</v>
       </c>
@@ -3506,7 +3830,7 @@
         <v>92</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>21</v>
@@ -3530,13 +3854,13 @@
         <v>23</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="102">
       <c r="A64" s="7" t="s">
         <v>5</v>
       </c>
@@ -3544,7 +3868,7 @@
         <v>93</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>21</v>
@@ -3556,10 +3880,10 @@
         <v>7</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>26</v>
@@ -3571,10 +3895,10 @@
         <v>33</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="102">
       <c r="A65" s="7" t="s">
         <v>5</v>
       </c>
@@ -3582,7 +3906,7 @@
         <v>95</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>21</v>
@@ -3594,10 +3918,10 @@
         <v>7</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>26</v>
@@ -3609,10 +3933,10 @@
         <v>33</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="102">
       <c r="A66" s="7" t="s">
         <v>5</v>
       </c>
@@ -3620,7 +3944,7 @@
         <v>96</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>21</v>
@@ -3632,10 +3956,10 @@
         <v>7</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>26</v>
@@ -3647,10 +3971,10 @@
         <v>33</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="102">
       <c r="A67" s="7" t="s">
         <v>5</v>
       </c>
@@ -3658,7 +3982,7 @@
         <v>97</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>21</v>
@@ -3670,10 +3994,10 @@
         <v>7</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>26</v>
@@ -3685,10 +4009,10 @@
         <v>33</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="102">
       <c r="A68" s="7" t="s">
         <v>5</v>
       </c>
@@ -3696,7 +4020,7 @@
         <v>98</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>21</v>
@@ -3708,10 +4032,10 @@
         <v>7</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>26</v>
@@ -3723,10 +4047,10 @@
         <v>33</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="102">
       <c r="A69" s="7" t="s">
         <v>5</v>
       </c>
@@ -3734,7 +4058,7 @@
         <v>99</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>21</v>
@@ -3746,10 +4070,10 @@
         <v>7</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>26</v>
@@ -3761,10 +4085,10 @@
         <v>33</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="102">
       <c r="A70" s="7" t="s">
         <v>5</v>
       </c>
@@ -3772,7 +4096,7 @@
         <v>102</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>21</v>
@@ -3784,10 +4108,10 @@
         <v>7</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>26</v>
@@ -3799,10 +4123,10 @@
         <v>33</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="102">
       <c r="A71" s="7" t="s">
         <v>5</v>
       </c>
@@ -3810,7 +4134,7 @@
         <v>103</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>21</v>
@@ -3822,10 +4146,10 @@
         <v>7</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>26</v>
@@ -3837,7 +4161,7 @@
         <v>33</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3849,7 +4173,7 @@
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="E46:E47"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L71" xr:uid="{2D356DEF-80E0-2B40-86EB-DB4F3109A82E}">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
     </dataValidation>
@@ -3863,30 +4187,696 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F72AFE3-1E87-CF46-B503-516FB4ECE6EB}">
+  <dimension ref="A2:O12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" ht="60">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="112">
+      <c r="A3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="34">
+        <v>3</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="N3" s="43">
+        <v>774371002</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="112">
+      <c r="A4" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="38">
+        <v>4</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="112">
+      <c r="A5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="38">
+        <v>6</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="13" customFormat="1" ht="136">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="13" customFormat="1" ht="136">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="13" customFormat="1" ht="136">
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="42" customFormat="1" ht="136">
+      <c r="A9" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="40">
+        <v>31</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="42" customFormat="1" ht="136">
+      <c r="A10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="40">
+        <v>32</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="42" customFormat="1" ht="70.25" customHeight="1">
+      <c r="A11" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="40">
+        <v>100</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="13" customFormat="1">
+      <c r="G12" s="15"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 L6 L9:L12 J12" xr:uid="{A4DF2DC6-FA07-0846-BC8D-ACF6F98FEE88}">
+      <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12" xr:uid="{807DB6D4-D89F-2D46-95D9-359993B5F352}">
+      <formula1>"1..1,1..*,*..1,*..*"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4D28A4-C67E-C24D-A558-9A5B7983454D}">
+  <dimension ref="A2:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="50" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="17" thickBot="1"/>
+    <row r="3" spans="1:4" ht="46" thickBot="1">
+      <c r="A3" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="151" thickBot="1">
+      <c r="A4" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="226" thickBot="1">
+      <c r="A5" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="121" thickBot="1">
+      <c r="A6" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="52">
+        <v>871726005</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="256" thickBot="1">
+      <c r="A7" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="61" thickBot="1">
+      <c r="A8" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="52">
+        <v>122450004</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="61" thickBot="1">
+      <c r="A9" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="52">
+        <v>422303009</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="106" thickBot="1">
+      <c r="A10" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="52">
+        <v>5720001</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="166" thickBot="1">
+      <c r="A11" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="52">
+        <v>2231000221105</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="106" thickBot="1">
+      <c r="A12" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="52">
+        <v>774893001</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="106" thickBot="1">
+      <c r="A13" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="52">
+        <v>774893001</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="121" thickBot="1">
+      <c r="A14" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="52">
+        <v>871919004</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="181" thickBot="1">
+      <c r="A15" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="49">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4040E8E-EB16-2240-A9EA-A7E4A1B5F002}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3898,7 +4888,7 @@
         <v>3.0303030303030304E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -3910,7 +4900,7 @@
         <v>0.32323232323232326</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -3921,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -3933,7 +4923,7 @@
         <v>0.40404040404040403</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -3945,9 +4935,9 @@
         <v>0.24242424242424243</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B7" s="22">
         <f>SUM(B2:B6)</f>

--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8EFC65-10A1-0648-BCD5-DEA92B5696F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EE34EC2-9FA0-C144-AE23-769481EDD979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="760" windowWidth="27380" windowHeight="15860" activeTab="2" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
   </bookViews>

--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EE34EC2-9FA0-C144-AE23-769481EDD979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B594EA81-9346-094C-AA23-D794D680B957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="760" windowWidth="27380" windowHeight="15860" activeTab="2" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
+    <workbookView xWindow="180" yWindow="760" windowWidth="29360" windowHeight="17880" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapeamento" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
@@ -62,12 +62,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Igual 56 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Igual 56 
 </t>
         </r>
       </text>
@@ -77,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="238">
   <si>
     <t>Nome Organização Source</t>
   </si>
@@ -151,12 +160,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>863911006</t>
-  </si>
-  <si>
-    <t>Vaccine product containing Clostridium tetani antigen (medicinal product)</t>
-  </si>
-  <si>
     <t>Diversos</t>
   </si>
   <si>
@@ -238,12 +241,6 @@
     <t>Vacina polio injetável</t>
   </si>
   <si>
-    <t>1031000221108</t>
-  </si>
-  <si>
-    <t>Vaccine product containing Human poliovirus antigen (medicinal product)</t>
-  </si>
-  <si>
     <t>1..*</t>
   </si>
   <si>
@@ -289,12 +286,6 @@
     <t>Vacina febre tifóide</t>
   </si>
   <si>
-    <t>37146000</t>
-  </si>
-  <si>
-    <t>Typhus vaccine (medicinal product)</t>
-  </si>
-  <si>
     <t>*..1</t>
   </si>
   <si>
@@ -328,12 +319,6 @@
     <t>Vacina raiva em cultivo celular vero</t>
   </si>
   <si>
-    <t>836393002</t>
-  </si>
-  <si>
-    <t>Vaccine product containing Rabies lyssavirus antigen (medicinal product)</t>
-  </si>
-  <si>
     <t>Vacina DTP/Hib</t>
   </si>
   <si>
@@ -475,12 +460,6 @@
     <t>Vacina meningocócica B/C</t>
   </si>
   <si>
-    <t>836500008</t>
-  </si>
-  <si>
-    <t>Vaccine product containing only Haemophilus influenzae type b and Neisseria meningitidis serogroup C antigens (medicinal product)</t>
-  </si>
-  <si>
     <t>Vacina HPV quadrivalente</t>
   </si>
   <si>
@@ -562,12 +541,6 @@
     <t>Vacina febre amarela fracionada</t>
   </si>
   <si>
-    <t>836385002</t>
-  </si>
-  <si>
-    <t>Vaccine product containing Yellow fever virus antigen (medicinal product)</t>
-  </si>
-  <si>
     <t>Vacina Covid-19 ASTRAZENECA/FIOCRUZ - COVISHIELD, recombinante</t>
   </si>
   <si>
@@ -764,13 +737,76 @@
   </si>
   <si>
     <t>777252008</t>
+  </si>
+  <si>
+    <t>777724003</t>
+  </si>
+  <si>
+    <t>Product containing only human tetanus immunoglobulin (medicinal product)</t>
+  </si>
+  <si>
+    <t>871740006</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only inactivated whole Human poliovirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>1052330009</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Streptococcus pneumoniae Danish serotype 1, 4, 5, 6B, 7F, 9V, 14, 18C, 19F, and 23F capsular polysaccharide antigens conjugated (medicinal product)</t>
+  </si>
+  <si>
+    <t>1131000221109,</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only inactivated whole Rabies lyssavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>971000221109</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Salmonella enterica subspecies enterica serovar Typhi antigen in oral dose form (medicinal product form)   ( Karla revisar via de admin))</t>
+  </si>
+  <si>
+    <t>2171000221104</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Salmonella enterica subspecies enterica serovar Typhi capsular polysaccharide unconjugated antigen in parenteral dose form (medicinal product form)</t>
+  </si>
+  <si>
+    <t>921000221108</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Neisseria meningitidis antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Yellow fever virus antigen (medicinal prod</t>
+  </si>
+  <si>
+    <t>29061000087103</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only recombinant non-replicating viral vector encoding severe acute respiratory syndrome coronavirus 2 spike protein (medicinal product)|</t>
+  </si>
+  <si>
+    <t>1119349007</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only severe acute respiratory syndrome coronavirus 2 messenger ribonucleic acid (medicinal product)|</t>
+  </si>
+  <si>
+    <t>1157024006</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only inactivated whole severe acute respiratory syndrome coronavirus 2 antigen (medicinal product)|</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -818,19 +854,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -875,8 +898,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -897,7 +940,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,7 +1093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1079,7 +1140,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1087,7 +1148,7 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1096,6 +1157,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1114,71 +1228,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1497,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F248D098-89B3-CC41-B3AD-EB932F8A3134}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1508,6 +1601,7 @@
     <col min="4" max="4" width="27.5" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="5.83203125" customWidth="1"/>
     <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="20" style="62" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
   </cols>
@@ -1527,7 +1621,7 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -1549,14 +1643,14 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="60">
+    <row r="3" spans="1:12" ht="90">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1575,7 +1669,7 @@
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="61" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -1609,23 +1703,23 @@
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="102">
@@ -1635,35 +1729,35 @@
       <c r="B5" s="8">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="I5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="51">
@@ -1674,72 +1768,72 @@
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="I6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="52" customFormat="1" ht="51">
+      <c r="A7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="50">
+        <v>10</v>
+      </c>
+      <c r="C7" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="D7" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="H7" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="51">
-      <c r="A7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>29</v>
+      <c r="L7" s="50" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="51">
@@ -1750,34 +1844,34 @@
         <v>13</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="I8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="51">
@@ -1788,34 +1882,34 @@
         <v>14</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="I9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="51">
@@ -1826,34 +1920,34 @@
         <v>17</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="102">
@@ -1864,34 +1958,34 @@
         <v>21</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="I11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="102">
@@ -1902,7 +1996,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>21</v>
@@ -1913,23 +2007,23 @@
       <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>54</v>
+      <c r="G12" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>220</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="68">
@@ -1940,72 +2034,72 @@
         <v>24</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="58" customFormat="1" ht="102">
+      <c r="A14" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="49">
+        <v>25</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="10" t="s">
+      <c r="H14" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="102">
-      <c r="A14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="8">
-        <v>25</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>29</v>
+      <c r="I14" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="49" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="102">
@@ -2016,7 +2110,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>21</v>
@@ -2027,23 +2121,23 @@
       <c r="F15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>51</v>
+      <c r="G15" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>222</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="L15" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="68">
@@ -2054,7 +2148,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>21</v>
@@ -2066,22 +2160,22 @@
         <v>7</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="119">
@@ -2092,7 +2186,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>21</v>
@@ -2104,25 +2198,25 @@
         <v>7</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="51">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="102">
       <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
@@ -2130,7 +2224,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>21</v>
@@ -2141,23 +2235,23 @@
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>71</v>
+      <c r="G18" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>228</v>
       </c>
       <c r="I18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="102">
@@ -2168,7 +2262,7 @@
         <v>33</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>21</v>
@@ -2180,22 +2274,22 @@
         <v>7</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="51">
@@ -2206,7 +2300,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>21</v>
@@ -2218,22 +2312,22 @@
         <v>7</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="51">
@@ -2244,7 +2338,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>21</v>
@@ -2256,22 +2350,22 @@
         <v>7</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="51">
@@ -2282,7 +2376,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>21</v>
@@ -2293,23 +2387,23 @@
       <c r="F22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>84</v>
+      <c r="G22" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>224</v>
       </c>
       <c r="I22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="102">
@@ -2320,7 +2414,7 @@
         <v>39</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>21</v>
@@ -2332,22 +2426,22 @@
         <v>7</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="85">
@@ -2358,7 +2452,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>21</v>
@@ -2369,23 +2463,23 @@
       <c r="F24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>90</v>
+      <c r="G24" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="I24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="51">
@@ -2396,7 +2490,7 @@
         <v>41</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>21</v>
@@ -2408,22 +2502,22 @@
         <v>7</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="119">
@@ -2434,7 +2528,7 @@
         <v>43</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>21</v>
@@ -2446,22 +2540,22 @@
         <v>7</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="51">
@@ -2472,7 +2566,7 @@
         <v>44</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>21</v>
@@ -2484,22 +2578,22 @@
         <v>7</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="51">
@@ -2510,7 +2604,7 @@
         <v>45</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>21</v>
@@ -2522,22 +2616,22 @@
         <v>7</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="85">
@@ -2548,7 +2642,7 @@
         <v>46</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>21</v>
@@ -2560,22 +2654,22 @@
         <v>7</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="I29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="102">
@@ -2586,7 +2680,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>21</v>
@@ -2598,22 +2692,22 @@
         <v>7</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="102">
@@ -2624,7 +2718,7 @@
         <v>51</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>21</v>
@@ -2635,23 +2729,23 @@
       <c r="F31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>71</v>
+      <c r="G31" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="H31" s="59" t="s">
+        <v>226</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="102">
@@ -2662,7 +2756,7 @@
         <v>55</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>21</v>
@@ -2674,22 +2768,22 @@
         <v>7</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="85">
@@ -2700,7 +2794,7 @@
         <v>56</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>21</v>
@@ -2712,22 +2806,22 @@
         <v>7</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="102">
@@ -2738,7 +2832,7 @@
         <v>57</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>21</v>
@@ -2750,22 +2844,22 @@
         <v>7</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="85">
@@ -2776,7 +2870,7 @@
         <v>58</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>21</v>
@@ -2787,23 +2881,23 @@
       <c r="F35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>115</v>
+      <c r="G35" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" s="63" t="s">
+        <v>107</v>
       </c>
       <c r="I35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L35" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="102">
@@ -2814,7 +2908,7 @@
         <v>59</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>21</v>
@@ -2826,22 +2920,22 @@
         <v>7</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L36" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="102">
@@ -2852,7 +2946,7 @@
         <v>60</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>21</v>
@@ -2864,22 +2958,22 @@
         <v>7</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="51">
@@ -2890,7 +2984,7 @@
         <v>61</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>21</v>
@@ -2902,22 +2996,22 @@
         <v>7</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L38" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="102">
@@ -2928,7 +3022,7 @@
         <v>62</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>21</v>
@@ -2940,22 +3034,22 @@
         <v>7</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="102">
@@ -2966,7 +3060,7 @@
         <v>63</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>21</v>
@@ -2978,22 +3072,22 @@
         <v>7</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="102">
@@ -3004,7 +3098,7 @@
         <v>64</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>21</v>
@@ -3016,22 +3110,22 @@
         <v>7</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="102">
@@ -3042,7 +3136,7 @@
         <v>65</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>21</v>
@@ -3054,25 +3148,25 @@
         <v>7</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="51">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -3080,7 +3174,7 @@
         <v>66</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>21</v>
@@ -3091,23 +3185,23 @@
       <c r="F43" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="10" t="s">
-        <v>132</v>
+      <c r="G43" s="64" t="s">
+        <v>229</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="I43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L43" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="102">
@@ -3118,7 +3212,7 @@
         <v>67</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>21</v>
@@ -3130,22 +3224,22 @@
         <v>7</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="102">
@@ -3156,7 +3250,7 @@
         <v>68</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>21</v>
@@ -3168,88 +3262,88 @@
         <v>7</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="51">
+      <c r="A46" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="44">
+        <v>70</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="51">
+      <c r="A47" s="43"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="51">
-      <c r="A46" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="25">
-        <v>70</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="51">
-      <c r="A47" s="24"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L47" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="51">
@@ -3260,7 +3354,7 @@
         <v>71</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>21</v>
@@ -3272,22 +3366,22 @@
         <v>7</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="I48" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J48" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L48" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="51">
@@ -3298,7 +3392,7 @@
         <v>72</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>21</v>
@@ -3310,22 +3404,22 @@
         <v>7</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L49" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="17">
@@ -3336,7 +3430,7 @@
         <v>73</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>21</v>
@@ -3347,7 +3441,7 @@
       <c r="F50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H50" s="7" t="s">
@@ -3360,7 +3454,7 @@
         <v>23</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>23</v>
@@ -3374,7 +3468,7 @@
         <v>74</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>21</v>
@@ -3386,22 +3480,22 @@
         <v>7</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="I51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L51" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="68">
@@ -3412,7 +3506,7 @@
         <v>75</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>21</v>
@@ -3424,22 +3518,22 @@
         <v>7</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="I52" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J52" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L52" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="102">
@@ -3450,7 +3544,7 @@
         <v>77</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>21</v>
@@ -3462,22 +3556,22 @@
         <v>7</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="51">
@@ -3488,7 +3582,7 @@
         <v>78</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>21</v>
@@ -3500,22 +3594,22 @@
         <v>7</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="I54" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J54" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L54" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="51">
@@ -3526,7 +3620,7 @@
         <v>82</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>21</v>
@@ -3538,22 +3632,22 @@
         <v>7</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="I55" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J55" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L55" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="102">
@@ -3564,7 +3658,7 @@
         <v>83</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>21</v>
@@ -3576,22 +3670,22 @@
         <v>7</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="102">
@@ -3602,7 +3696,7 @@
         <v>84</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>21</v>
@@ -3613,23 +3707,23 @@
       <c r="F57" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>162</v>
+      <c r="G57" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" s="64" t="s">
+        <v>231</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="102">
@@ -3640,7 +3734,7 @@
         <v>85</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>21</v>
@@ -3651,23 +3745,23 @@
       <c r="F58" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G58" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>165</v>
+      <c r="G58" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="H58" s="64" t="s">
+        <v>233</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="102">
@@ -3678,7 +3772,7 @@
         <v>86</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>21</v>
@@ -3689,23 +3783,23 @@
       <c r="F59" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G59" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>165</v>
+      <c r="G59" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="H59" s="64" t="s">
+        <v>237</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="102">
@@ -3716,7 +3810,7 @@
         <v>87</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>21</v>
@@ -3727,23 +3821,23 @@
       <c r="F60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G60" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>165</v>
+      <c r="G60" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="H60" s="64" t="s">
+        <v>235</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="102">
@@ -3754,7 +3848,7 @@
         <v>88</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>21</v>
@@ -3765,23 +3859,23 @@
       <c r="F61" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G61" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>165</v>
+      <c r="G61" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="H61" s="64" t="s">
+        <v>233</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="102">
@@ -3792,7 +3886,7 @@
         <v>89</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>21</v>
@@ -3803,23 +3897,23 @@
       <c r="F62" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G62" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>165</v>
+      <c r="G62" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="H62" s="64" t="s">
+        <v>233</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="34">
@@ -3830,7 +3924,7 @@
         <v>92</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>21</v>
@@ -3841,7 +3935,7 @@
       <c r="F63" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H63" s="7" t="s">
@@ -3854,7 +3948,7 @@
         <v>23</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>23</v>
@@ -3868,7 +3962,7 @@
         <v>93</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>21</v>
@@ -3880,22 +3974,22 @@
         <v>7</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="102">
@@ -3906,7 +4000,7 @@
         <v>95</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>21</v>
@@ -3918,22 +4012,22 @@
         <v>7</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="102">
@@ -3944,7 +4038,7 @@
         <v>96</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>21</v>
@@ -3956,22 +4050,22 @@
         <v>7</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="102">
@@ -3982,7 +4076,7 @@
         <v>97</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>21</v>
@@ -3994,22 +4088,22 @@
         <v>7</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="102">
@@ -4020,7 +4114,7 @@
         <v>98</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>21</v>
@@ -4032,22 +4126,22 @@
         <v>7</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J68" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="102">
@@ -4058,34 +4152,34 @@
         <v>99</v>
       </c>
       <c r="C69" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H69" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>188</v>
-      </c>
       <c r="I69" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="102">
@@ -4096,7 +4190,7 @@
         <v>102</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>21</v>
@@ -4108,22 +4202,22 @@
         <v>7</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="102">
@@ -4134,7 +4228,7 @@
         <v>103</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>21</v>
@@ -4146,22 +4240,22 @@
         <v>7</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4240,132 +4334,132 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="112">
-      <c r="A3" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="34">
+      <c r="A3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="26">
         <v>3</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="34" t="s">
+      <c r="C3" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" s="32">
+        <v>774371002</v>
+      </c>
+      <c r="O3" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="L3" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="N3" s="43">
-        <v>774371002</v>
-      </c>
-      <c r="O3" s="44" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="4" spans="1:15" ht="112">
-      <c r="A4" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="38">
+      <c r="A4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="30">
         <v>4</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>181</v>
+      <c r="C4" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="112">
-      <c r="A5" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="38">
+      <c r="A5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="30">
         <v>6</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="36" t="s">
-        <v>181</v>
+      <c r="C5" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="13" customFormat="1" ht="136">
@@ -4376,7 +4470,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>21</v>
@@ -4400,13 +4494,13 @@
         <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="13" customFormat="1" ht="136">
@@ -4417,7 +4511,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>21</v>
@@ -4441,13 +4535,13 @@
         <v>23</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="13" customFormat="1" ht="136">
@@ -4458,7 +4552,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>21</v>
@@ -4482,135 +4576,135 @@
         <v>23</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="42" customFormat="1" ht="136">
-      <c r="A9" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="40">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="13" customFormat="1" ht="136">
+      <c r="A9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7">
         <v>31</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="42" customFormat="1" ht="136">
-      <c r="A10" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="40">
+      <c r="C9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="13" customFormat="1" ht="136">
+      <c r="A10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
         <v>32</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="42">
+      <c r="C10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="13">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="42" customFormat="1" ht="70.25" customHeight="1">
-      <c r="A11" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="40">
+    <row r="11" spans="1:15" s="13" customFormat="1" ht="70.25" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7">
         <v>100</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="42">
+      <c r="C11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="13">
         <v>9</v>
       </c>
     </row>
@@ -4634,198 +4728,198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4D28A4-C67E-C24D-A558-9A5B7983454D}">
   <dimension ref="A2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="39" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="17" thickBot="1"/>
-    <row r="3" spans="1:4" ht="46" thickBot="1">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:4" ht="17" thickBot="1">
+      <c r="A3" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="61" thickBot="1">
+      <c r="A4" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="106" thickBot="1">
+      <c r="A5" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="46" thickBot="1">
+      <c r="A6" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="41">
+        <v>871726005</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="121" thickBot="1">
+      <c r="A7" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31" thickBot="1">
+      <c r="A8" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B8" s="41">
+        <v>122450004</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="46" t="s">
+      <c r="D8" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31" thickBot="1">
+      <c r="A9" s="36" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="151" thickBot="1">
-      <c r="A4" s="47" t="s">
+      <c r="B9" s="41">
+        <v>422303009</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="D9" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="61" thickBot="1">
+      <c r="A10" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="49">
+      <c r="B10" s="41">
+        <v>5720001</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="226" thickBot="1">
-      <c r="A5" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="48" t="s">
+    <row r="11" spans="1:4" ht="76" thickBot="1">
+      <c r="A11" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="49">
+      <c r="B11" s="41">
+        <v>2231000221105</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="121" thickBot="1">
-      <c r="A6" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="52">
-        <v>871726005</v>
-      </c>
-      <c r="C6" s="48" t="s">
+    <row r="12" spans="1:4" ht="46" thickBot="1">
+      <c r="A12" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="49">
+      <c r="B12" s="41">
+        <v>774893001</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="38">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="256" thickBot="1">
-      <c r="A7" s="47" t="s">
+    <row r="13" spans="1:4" ht="46" thickBot="1">
+      <c r="A13" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="41">
+        <v>774893001</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="48" t="s">
+      <c r="D13" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="61" thickBot="1">
+      <c r="A14" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="61" thickBot="1">
-      <c r="A8" s="47" t="s">
+      <c r="B14" s="41">
+        <v>871919004</v>
+      </c>
+      <c r="C14" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="B8" s="52">
-        <v>122450004</v>
-      </c>
-      <c r="C8" s="48" t="s">
+      <c r="D14" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="91" thickBot="1">
+      <c r="A15" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="D8" s="49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="61" thickBot="1">
-      <c r="A9" s="47" t="s">
+      <c r="B15" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="52">
-        <v>422303009</v>
-      </c>
-      <c r="C9" s="48" t="s">
+      <c r="C15" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="106" thickBot="1">
-      <c r="A10" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" s="52">
-        <v>5720001</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="166" thickBot="1">
-      <c r="A11" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="B11" s="52">
-        <v>2231000221105</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="D11" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="106" thickBot="1">
-      <c r="A12" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" s="52">
-        <v>774893001</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="D12" s="49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="106" thickBot="1">
-      <c r="A13" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="B13" s="52">
-        <v>774893001</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="D13" s="49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="121" thickBot="1">
-      <c r="A14" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" s="52">
-        <v>871919004</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="D14" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="181" thickBot="1">
-      <c r="A15" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" s="49">
+      <c r="D15" s="38">
         <v>1</v>
       </c>
     </row>
@@ -4838,42 +4932,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4040E8E-EB16-2240-A9EA-A7E4A1B5F002}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="176">
       <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>145</v>
+        <v>168</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4937,7 +5032,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="19" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B7" s="22">
         <f>SUM(B2:B6)</f>

--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B594EA81-9346-094C-AA23-D794D680B957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9FBFA39-C119-CA42-BCD5-98C9E0FBD7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="760" windowWidth="29360" windowHeight="17880" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
+    <workbookView xWindow="180" yWindow="760" windowWidth="29360" windowHeight="17860" activeTab="4" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mapeamento" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="1" r:id="rId1"/>
     <sheet name="Equivalencia 5" sheetId="3" r:id="rId2"/>
     <sheet name="SNOMED CORE ONLY" sheetId="4" r:id="rId3"/>
-    <sheet name="Equivalência" sheetId="2" r:id="rId4"/>
+    <sheet name="Brazilian List in PT BR" sheetId="5" r:id="rId4"/>
+    <sheet name="Equivalência" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapeamento!$K$1:$K$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2'!$K$1:$K$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="391">
   <si>
     <t>Nome Organização Source</t>
   </si>
@@ -658,9 +659,6 @@
     <t>Equivalence of mapping</t>
   </si>
   <si>
-    <t>BCG vaccine</t>
-  </si>
-  <si>
     <t>Vaccine product containing only live attenuated Mycobacterium bovis antigen (medicinal product)</t>
   </si>
   <si>
@@ -670,12 +668,6 @@
     <t>Product containing only polyvalent crotalidae antivenom (medicinal product)oduct containing only polyvalent crotalidae antivenom (medicinal product)</t>
   </si>
   <si>
-    <t>Chicken embryo rabies vaccine</t>
-  </si>
-  <si>
-    <t>Vaccine product containing only Rabies lyssavirus antigen (medicinal product)</t>
-  </si>
-  <si>
     <t>Anti-varicella human immunoglobulin</t>
   </si>
   <si>
@@ -691,24 +683,12 @@
     <t>Antibody to hepatitis B virus (substance)</t>
   </si>
   <si>
-    <t>Human rabies immunoglobulin</t>
-  </si>
-  <si>
     <t>Rabies human immune globulin (substance)||</t>
   </si>
   <si>
-    <t>latrodectus serum</t>
-  </si>
-  <si>
-    <t>Product containing Latrodectus mactans antivenom (medicinal product)|</t>
-  </si>
-  <si>
     <t>Measles, rubella vaccine</t>
   </si>
   <si>
-    <t>Vaccine product containing only live attenuated Measles morbillivirus and Rubella virus antigens (medicinal product)|</t>
-  </si>
-  <si>
     <t>Antibotulinum serum (trivalent)</t>
   </si>
   <si>
@@ -800,13 +780,493 @@
   </si>
   <si>
     <t>Vaccine product containing only inactivated whole severe acute respiratory syndrome coronavirus 2 antigen (medicinal product)|</t>
+  </si>
+  <si>
+    <t>BCG</t>
+  </si>
+  <si>
+    <t>accine product containing only Rabies lyssavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vacina raiva embrião de galinha</t>
+  </si>
+  <si>
+    <t>Vacina BCG</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>122450004</t>
+  </si>
+  <si>
+    <t>422303009</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>inativo</t>
+  </si>
+  <si>
+    <t>IGHT</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>Soro antitetânico</t>
+  </si>
+  <si>
+    <t>SARC</t>
+  </si>
+  <si>
+    <t>SAESCOR</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>SAELAP</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>Soro antirrábico</t>
+  </si>
+  <si>
+    <t>SABOTR</t>
+  </si>
+  <si>
+    <t>HepB</t>
+  </si>
+  <si>
+    <t>SAD</t>
+  </si>
+  <si>
+    <t>SABOCR</t>
+  </si>
+  <si>
+    <t>SABOLA</t>
+  </si>
+  <si>
+    <t>Meningo AC</t>
+  </si>
+  <si>
+    <t>VFA</t>
+  </si>
+  <si>
+    <t>SACROT</t>
+  </si>
+  <si>
+    <t>Soro anticrotálico</t>
+  </si>
+  <si>
+    <t>Hib</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>IGHV</t>
+  </si>
+  <si>
+    <t>Imunoglobulina humana antivaricela</t>
+  </si>
+  <si>
+    <t>IGHHB</t>
+  </si>
+  <si>
+    <t>Imunoglobulina humana anti-hepatite B</t>
+  </si>
+  <si>
+    <t>VPP23</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>IGHR</t>
+  </si>
+  <si>
+    <t>Imunoglobulina humana antirrábica</t>
+  </si>
+  <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>dT</t>
+  </si>
+  <si>
+    <t>VPC10</t>
+  </si>
+  <si>
+    <t>SLATRO</t>
+  </si>
+  <si>
+    <t>Soro latrodectus</t>
+  </si>
+  <si>
+    <t>VOP</t>
+  </si>
+  <si>
+    <t>PENTA acelular</t>
+  </si>
+  <si>
+    <t>FTp</t>
+  </si>
+  <si>
+    <t>SALOXO</t>
+  </si>
+  <si>
+    <t>SALONO</t>
+  </si>
+  <si>
+    <t>INF3</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Vacina sarampo, rubéola</t>
+  </si>
+  <si>
+    <t>Vero</t>
+  </si>
+  <si>
+    <t>SBOTULTRI</t>
+  </si>
+  <si>
+    <t>Soro antibotulínico (trivalente)</t>
+  </si>
+  <si>
+    <t>Tetra</t>
+  </si>
+  <si>
+    <t>Pncc7V</t>
+  </si>
+  <si>
+    <t>MenC</t>
+  </si>
+  <si>
+    <t>PENTA</t>
+  </si>
+  <si>
+    <t>Vacina penta (DTP/HepB/Hib)</t>
+  </si>
+  <si>
+    <t>HEXA</t>
+  </si>
+  <si>
+    <t>H1N1</t>
+  </si>
+  <si>
+    <t>ROTA</t>
+  </si>
+  <si>
+    <t>DTP</t>
+  </si>
+  <si>
+    <t>DTPa</t>
+  </si>
+  <si>
+    <t>DILSRC</t>
+  </si>
+  <si>
+    <t>Diluente para vacina sarampo, caxumba, rubéola</t>
+  </si>
+  <si>
+    <t>DILVFA</t>
+  </si>
+  <si>
+    <t>Diluente para vacina febre amarela</t>
+  </si>
+  <si>
+    <t>DILHib</t>
+  </si>
+  <si>
+    <t>Diluente para vacina haemophilus influenzae B</t>
+  </si>
+  <si>
+    <t>Fta</t>
+  </si>
+  <si>
+    <t>DilMengAC</t>
+  </si>
+  <si>
+    <t>Diluente meningo AC</t>
+  </si>
+  <si>
+    <t>DILSR</t>
+  </si>
+  <si>
+    <t>Diluente para vacina sarampo, rubéola</t>
+  </si>
+  <si>
+    <t>DILVAR</t>
+  </si>
+  <si>
+    <t>Diluente para vacina varicela</t>
+  </si>
+  <si>
+    <t>HepAinf</t>
+  </si>
+  <si>
+    <t>SCRV</t>
+  </si>
+  <si>
+    <t>dTpa</t>
+  </si>
+  <si>
+    <t>TETRA acelular</t>
+  </si>
+  <si>
+    <t>VPC13</t>
+  </si>
+  <si>
+    <t>HPV2</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>HAeHBped</t>
+  </si>
+  <si>
+    <t>HAeHB</t>
+  </si>
+  <si>
+    <t>FLU ID</t>
+  </si>
+  <si>
+    <t>ROTA5</t>
+  </si>
+  <si>
+    <t>MEN BC</t>
+  </si>
+  <si>
+    <t>HPV4</t>
+  </si>
+  <si>
+    <t>HPV Bi</t>
+  </si>
+  <si>
+    <t>SABOT</t>
+  </si>
+  <si>
+    <t>Soro antibotulínico AB (bivalente)</t>
+  </si>
+  <si>
+    <t>Sarampo</t>
+  </si>
+  <si>
+    <t>Rubeola</t>
+  </si>
+  <si>
+    <t>Gripe Sazonal</t>
+  </si>
+  <si>
+    <t>Quadrupla Viral</t>
+  </si>
+  <si>
+    <t>MenACWY</t>
+  </si>
+  <si>
+    <t>COLERA</t>
+  </si>
+  <si>
+    <t>VHZ</t>
+  </si>
+  <si>
+    <t>Vacina herpes-zóster</t>
+  </si>
+  <si>
+    <t>INF4</t>
+  </si>
+  <si>
+    <t>MenB</t>
+  </si>
+  <si>
+    <t>DILBCG</t>
+  </si>
+  <si>
+    <t>Diluente para vacina BCG</t>
+  </si>
+  <si>
+    <t>DILVRvero</t>
+  </si>
+  <si>
+    <t>Diluente para vacina raiva cultivo celulas vero</t>
+  </si>
+  <si>
+    <t>DILMenC</t>
+  </si>
+  <si>
+    <t>Diluente para vacina meningo C</t>
+  </si>
+  <si>
+    <t>Dengue</t>
+  </si>
+  <si>
+    <t>HEPAad</t>
+  </si>
+  <si>
+    <t>VFA-F</t>
+  </si>
+  <si>
+    <t>COVID-19 ASTRAZENECA/FIOCRUZ - COVISHIELD</t>
+  </si>
+  <si>
+    <t>COVID-19 SINOVAC/BUTANTAN - CORONAVAC</t>
+  </si>
+  <si>
+    <t>COVID-19 PFIZER - COMIRNATY</t>
+  </si>
+  <si>
+    <t>COVID-19 JANSSEN - Ad26.COV2.S</t>
+  </si>
+  <si>
+    <t>COVID-19 ASTRAZENECA - ChAdOx1-S</t>
+  </si>
+  <si>
+    <t>DILSCRV</t>
+  </si>
+  <si>
+    <t>Diluente para vacina sarampo, caxumba, rubéola e varicela</t>
+  </si>
+  <si>
+    <t>DILVR</t>
+  </si>
+  <si>
+    <t>Diluente para vacina raiva cultivo embrião de galinha</t>
+  </si>
+  <si>
+    <t>VRvero</t>
+  </si>
+  <si>
+    <t>HPV9</t>
+  </si>
+  <si>
+    <t>DILCOV</t>
+  </si>
+  <si>
+    <t>Diluente Covid-19</t>
+  </si>
+  <si>
+    <t>COVID-19 GAMALEYA - SPUTNIK V</t>
+  </si>
+  <si>
+    <t>COVID-19 BHARAT - COVAXIN</t>
+  </si>
+  <si>
+    <t>COVID-19 MODERNA</t>
+  </si>
+  <si>
+    <t>COVID-19 SINOVAC - CORONAVAC</t>
+  </si>
+  <si>
+    <t>COVID-19 PFIZER - COMIRNATY PEDIÁTRICA</t>
+  </si>
+  <si>
+    <t>VVBN</t>
+  </si>
+  <si>
+    <t>VZR</t>
+  </si>
+  <si>
+    <t>Vacina Herpes-Zoster, recombinante</t>
+  </si>
+  <si>
+    <t>COVID-19 PFIZER - COMIRNATY PEDIÁTRICA MENOR DE 5 ANOS</t>
+  </si>
+  <si>
+    <t>COVID-19 PFIZER - COMIRNATY BIVALENTE</t>
+  </si>
+  <si>
+    <t>Additional Language Displays</t>
+  </si>
+  <si>
+    <t>Does not exist in SNOMED CORE neither IPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazilian  term </t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>arachnid antivenom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNOMED CT </t>
+  </si>
+  <si>
+    <t>Product containing only Latrodectus mactans antivenom (medicinal product)|</t>
+  </si>
+  <si>
+    <t>SNOMED IPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not present </t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t>This is only for black spider…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21252703004 </t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Measles morbillivirus and Mumps orthorubulavirus (medicinal product)|</t>
+  </si>
+  <si>
+    <t>774893001</t>
+  </si>
+  <si>
+    <t>871919004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNOMED Term </t>
+  </si>
+  <si>
+    <t>Obs: This product is just for one type os Spider</t>
+  </si>
+  <si>
+    <t>1-Equivalence of meaning; lexical as well as conceptual.</t>
+  </si>
+  <si>
+    <t>2-Equivalence of meaning, but with synonymy</t>
+  </si>
+  <si>
+    <t>3 -Source concept is broader, and has a less specific meaning than the target concept/term.</t>
+  </si>
+  <si>
+    <t>4 -Source concept is narrower, and has a more specific meaning than the target concept/term.</t>
+  </si>
+  <si>
+    <t>5 -No map is possible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -882,17 +1342,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -904,6 +1353,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -919,7 +1374,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -962,8 +1417,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1088,12 +1555,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1184,30 +1673,28 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1257,7 +1744,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1271,6 +1759,54 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1588,25 +2124,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F248D098-89B3-CC41-B3AD-EB932F8A3134}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView topLeftCell="A70" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="27.5" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="5.83203125" customWidth="1"/>
     <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="20" style="62" customWidth="1"/>
+    <col min="7" max="7" width="20" style="61" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="48">
+    <row r="1" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,14 +2157,14 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="60"/>
+      <c r="G1" s="59"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="32">
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1643,14 +2179,14 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="60"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="90">
+    <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1669,7 +2205,7 @@
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="60" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -1688,7 +2224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="51">
+    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1703,11 +2239,11 @@
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>218</v>
+      <c r="G4" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>211</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>24</v>
@@ -1722,14 +2258,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="102">
+    <row r="5" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="8">
         <v>5</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="47" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1760,7 +2296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="51">
+    <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1798,45 +2334,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="52" customFormat="1" ht="51">
-      <c r="A7" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="50">
+    <row r="7" spans="1:12" s="50" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="48">
         <v>10</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="50" t="s">
+      <c r="J7" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="L7" s="48" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="51">
+    <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1874,7 +2410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="51">
+    <row r="9" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1912,7 +2448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="51">
+    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
@@ -1950,7 +2486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="102">
+    <row r="11" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
@@ -1988,7 +2524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="102">
+    <row r="12" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
@@ -2007,11 +2543,11 @@
       <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="H12" s="54" t="s">
-        <v>220</v>
+      <c r="G12" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>213</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>24</v>
@@ -2026,7 +2562,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="68">
+    <row r="13" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -2064,45 +2600,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="58" customFormat="1" ht="102">
-      <c r="A14" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="49">
+    <row r="14" spans="1:12" s="56" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A14" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="47">
         <v>25</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="55" t="s">
+      <c r="D14" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="49" t="s">
+      <c r="J14" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="49" t="s">
+      <c r="L14" s="47" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="102">
+    <row r="15" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -2121,11 +2657,11 @@
       <c r="F15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>222</v>
+      <c r="G15" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>215</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>24</v>
@@ -2140,7 +2676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="68">
+    <row r="16" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -2178,7 +2714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="119">
+    <row r="17" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
@@ -2216,7 +2752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="102">
+    <row r="18" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
@@ -2235,11 +2771,11 @@
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="H18" s="54" t="s">
-        <v>228</v>
+      <c r="G18" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>221</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>24</v>
@@ -2254,7 +2790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="102">
+    <row r="19" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
@@ -2292,7 +2828,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="51">
+    <row r="20" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>5</v>
       </c>
@@ -2330,7 +2866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="51">
+    <row r="21" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
@@ -2368,7 +2904,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="51">
+    <row r="22" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>5</v>
       </c>
@@ -2387,11 +2923,11 @@
       <c r="F22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="H22" s="54" t="s">
-        <v>224</v>
+      <c r="G22" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>217</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>24</v>
@@ -2406,7 +2942,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="102">
+    <row r="23" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
@@ -2444,7 +2980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="85">
+    <row r="24" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>5</v>
       </c>
@@ -2482,7 +3018,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="51">
+    <row r="25" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -2520,7 +3056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="119">
+    <row r="26" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>5</v>
       </c>
@@ -2558,7 +3094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="51">
+    <row r="27" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
@@ -2596,7 +3132,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="51">
+    <row r="28" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
@@ -2634,7 +3170,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="85">
+    <row r="29" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>5</v>
       </c>
@@ -2672,7 +3208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="102">
+    <row r="30" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>5</v>
       </c>
@@ -2710,7 +3246,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="102">
+    <row r="31" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>5</v>
       </c>
@@ -2729,11 +3265,11 @@
       <c r="F31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="H31" s="59" t="s">
-        <v>226</v>
+      <c r="G31" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="H31" s="58" t="s">
+        <v>219</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>24</v>
@@ -2748,7 +3284,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="102">
+    <row r="32" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
@@ -2786,7 +3322,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="85">
+    <row r="33" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -2824,7 +3360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="102">
+    <row r="34" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -2862,7 +3398,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="85">
+    <row r="35" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
@@ -2881,10 +3417,10 @@
       <c r="F35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="63" t="s">
+      <c r="G35" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="H35" s="63" t="s">
+      <c r="H35" s="62" t="s">
         <v>107</v>
       </c>
       <c r="I35" s="7" t="s">
@@ -2900,7 +3436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="102">
+    <row r="36" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>5</v>
       </c>
@@ -2938,7 +3474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="102">
+    <row r="37" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>5</v>
       </c>
@@ -2976,7 +3512,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="51">
+    <row r="38" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
@@ -3014,7 +3550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="102">
+    <row r="39" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
@@ -3052,7 +3588,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="102">
+    <row r="40" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>5</v>
       </c>
@@ -3090,7 +3626,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="102">
+    <row r="41" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>5</v>
       </c>
@@ -3128,7 +3664,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="102">
+    <row r="42" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>5</v>
       </c>
@@ -3166,7 +3702,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="51">
+    <row r="43" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -3185,11 +3721,11 @@
       <c r="F43" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>230</v>
+      <c r="G43" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="H43" s="63" t="s">
+        <v>223</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>24</v>
@@ -3204,7 +3740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="102">
+    <row r="44" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>5</v>
       </c>
@@ -3242,7 +3778,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="102">
+    <row r="45" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>5</v>
       </c>
@@ -3280,20 +3816,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="51">
-      <c r="A46" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="44">
+    <row r="46" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="42">
         <v>70</v>
       </c>
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="D46" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="46" t="s">
+      <c r="D46" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F46" s="7" t="s">
@@ -3318,12 +3854,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="51">
-      <c r="A47" s="43"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="47"/>
+    <row r="47" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A47" s="41"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="45"/>
       <c r="F47" s="7" t="s">
         <v>7</v>
       </c>
@@ -3346,7 +3882,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="51">
+    <row r="48" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>5</v>
       </c>
@@ -3384,7 +3920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="51">
+    <row r="49" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>5</v>
       </c>
@@ -3422,7 +3958,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="17">
+    <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>5</v>
       </c>
@@ -3460,7 +3996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="68">
+    <row r="51" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>5</v>
       </c>
@@ -3498,7 +4034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="68">
+    <row r="52" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -3536,7 +4072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="102">
+    <row r="53" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>5</v>
       </c>
@@ -3574,7 +4110,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="51">
+    <row r="54" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>5</v>
       </c>
@@ -3612,7 +4148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="51">
+    <row r="55" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>5</v>
       </c>
@@ -3650,7 +4186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="102">
+    <row r="56" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>5</v>
       </c>
@@ -3688,7 +4224,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="102">
+    <row r="57" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>5</v>
       </c>
@@ -3707,11 +4243,11 @@
       <c r="F57" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="64" t="s">
+      <c r="G57" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="64" t="s">
-        <v>231</v>
+      <c r="H57" s="63" t="s">
+        <v>224</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>24</v>
@@ -3726,7 +4262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="102">
+    <row r="58" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>5</v>
       </c>
@@ -3745,11 +4281,11 @@
       <c r="F58" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G58" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="H58" s="64" t="s">
-        <v>233</v>
+      <c r="G58" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="H58" s="63" t="s">
+        <v>226</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>24</v>
@@ -3764,7 +4300,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="102">
+    <row r="59" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>5</v>
       </c>
@@ -3783,11 +4319,11 @@
       <c r="F59" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G59" s="64" t="s">
-        <v>236</v>
-      </c>
-      <c r="H59" s="64" t="s">
-        <v>237</v>
+      <c r="G59" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="H59" s="63" t="s">
+        <v>230</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>24</v>
@@ -3802,7 +4338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="102">
+    <row r="60" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>5</v>
       </c>
@@ -3821,11 +4357,11 @@
       <c r="F60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G60" s="64" t="s">
-        <v>234</v>
-      </c>
-      <c r="H60" s="64" t="s">
-        <v>235</v>
+      <c r="G60" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="H60" s="63" t="s">
+        <v>228</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>24</v>
@@ -3840,7 +4376,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="102">
+    <row r="61" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>5</v>
       </c>
@@ -3859,11 +4395,11 @@
       <c r="F61" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G61" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="H61" s="64" t="s">
-        <v>233</v>
+      <c r="G61" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="H61" s="63" t="s">
+        <v>226</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>24</v>
@@ -3878,7 +4414,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="102">
+    <row r="62" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>5</v>
       </c>
@@ -3897,11 +4433,11 @@
       <c r="F62" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G62" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="H62" s="64" t="s">
-        <v>233</v>
+      <c r="G62" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="H62" s="63" t="s">
+        <v>226</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>24</v>
@@ -3916,7 +4452,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="34">
+    <row r="63" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>5</v>
       </c>
@@ -3954,7 +4490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="102">
+    <row r="64" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>5</v>
       </c>
@@ -3992,7 +4528,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="102">
+    <row r="65" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>5</v>
       </c>
@@ -4030,7 +4566,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="102">
+    <row r="66" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>5</v>
       </c>
@@ -4068,7 +4604,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="102">
+    <row r="67" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>5</v>
       </c>
@@ -4106,7 +4642,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="102">
+    <row r="68" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>5</v>
       </c>
@@ -4144,7 +4680,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="102">
+    <row r="69" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>5</v>
       </c>
@@ -4182,7 +4718,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="102">
+    <row r="70" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>5</v>
       </c>
@@ -4220,7 +4756,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="102">
+    <row r="71" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>5</v>
       </c>
@@ -4256,6 +4792,59 @@
       </c>
       <c r="L71" s="7" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G72" s="72"/>
+    </row>
+    <row r="73" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="65">
+        <v>15</v>
+      </c>
+      <c r="C73" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B74" s="65">
+        <v>18</v>
+      </c>
+      <c r="C74" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="G74" s="57">
+        <v>871726005</v>
+      </c>
+      <c r="H74" s="70" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="65">
+        <v>23</v>
+      </c>
+      <c r="C75" s="76" t="s">
+        <v>269</v>
+      </c>
+      <c r="G75" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="H75" s="35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4284,18 +4873,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F72AFE3-1E87-CF46-B503-516FB4ECE6EB}">
   <dimension ref="A2:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="11" max="11" width="16.1640625" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="60">
+    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -4329,11 +4918,11 @@
       <c r="K2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="112">
+      <c r="M2" s="80" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
@@ -4367,20 +4956,20 @@
       <c r="K3" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="L3" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="28" t="s">
+      <c r="L3" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="N3" s="32">
+      <c r="M3" s="26">
         <v>774371002</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="N3" s="26" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="112">
+      <c r="O3" s="81" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
@@ -4414,14 +5003,11 @@
       <c r="K4" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="L4" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="28" t="s">
+      <c r="L4" s="28" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="112">
+    <row r="5" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
@@ -4455,14 +5041,11 @@
       <c r="K5" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="L5" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="28" t="s">
+      <c r="L5" s="28" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="13" customFormat="1" ht="136">
+    <row r="6" spans="1:15" s="13" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -4496,14 +5079,11 @@
       <c r="K6" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="13" t="s">
+      <c r="L6" s="13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="13" customFormat="1" ht="136">
+    <row r="7" spans="1:15" s="13" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -4537,14 +5117,11 @@
       <c r="K7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="13" t="s">
+      <c r="L7" s="13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="13" customFormat="1" ht="136">
+    <row r="8" spans="1:15" s="13" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -4578,14 +5155,11 @@
       <c r="K8" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="13" t="s">
+      <c r="L8" s="13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="13" customFormat="1" ht="136">
+    <row r="9" spans="1:15" s="13" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
@@ -4619,14 +5193,11 @@
       <c r="K9" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="13" customFormat="1" ht="136">
+      <c r="L9" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="13" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -4660,14 +5231,11 @@
       <c r="K10" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="13">
+      <c r="L10" s="13">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="13" customFormat="1" ht="70.25" customHeight="1">
+    <row r="11" spans="1:15" s="13" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
@@ -4701,19 +5269,16 @@
       <c r="K11" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="13">
+      <c r="L11" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="13" customFormat="1">
+    <row r="12" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G12" s="15"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 L6 L9:L12 J12" xr:uid="{A4DF2DC6-FA07-0846-BC8D-ACF6F98FEE88}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12" xr:uid="{A4DF2DC6-FA07-0846-BC8D-ACF6F98FEE88}">
       <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12" xr:uid="{807DB6D4-D89F-2D46-95D9-359993B5F352}">
@@ -4726,201 +5291,1428 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4D28A4-C67E-C24D-A558-9A5B7983454D}">
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="17" thickBot="1"/>
-    <row r="3" spans="1:4" ht="17" thickBot="1">
-      <c r="A3" s="34" t="s">
+    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="D3" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="E3" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="F3" s="33" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="61" thickBot="1">
-      <c r="A4" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="37" t="s">
+    <row r="4" spans="1:7" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="69">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="106" thickBot="1">
-      <c r="A5" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="37" t="s">
+      <c r="G4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="121" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="36">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="36">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>381</v>
+      </c>
+      <c r="F7" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="46" thickBot="1">
-      <c r="A6" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="41">
-        <v>871726005</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" s="38">
+    <row r="8" spans="1:7" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="36">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="121" thickBot="1">
-      <c r="A7" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="38">
+    <row r="9" spans="1:7" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="39">
+        <v>774893001</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>371</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>374</v>
+      </c>
+      <c r="F17" s="74"/>
+      <c r="G17" t="s">
+        <v>376</v>
+      </c>
+      <c r="H17" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="C18" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>373</v>
+      </c>
+      <c r="E18">
+        <v>774371002</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>375</v>
+      </c>
+      <c r="G18" t="s">
+        <v>377</v>
+      </c>
+      <c r="H18" t="s">
+        <v>379</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E17:F17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25F7119-B34B-F44D-9317-E555B8512172}">
+  <dimension ref="A1:D105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="41.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="31" thickBot="1">
-      <c r="A8" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="41">
-        <v>122450004</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="38">
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="31" thickBot="1">
-      <c r="A9" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="41">
-        <v>422303009</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="38">
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>277</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>278</v>
+      </c>
+      <c r="C32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>279</v>
+      </c>
+      <c r="C33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>281</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>283</v>
+      </c>
+      <c r="C37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>285</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>286</v>
+      </c>
+      <c r="C39" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>288</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>289</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>291</v>
+      </c>
+      <c r="C43" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>293</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>294</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>295</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>296</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>298</v>
+      </c>
+      <c r="C49" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>300</v>
+      </c>
+      <c r="C50" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>302</v>
+      </c>
+      <c r="C51" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>304</v>
+      </c>
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>305</v>
+      </c>
+      <c r="C53" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>307</v>
+      </c>
+      <c r="C54" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>309</v>
+      </c>
+      <c r="C55" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>311</v>
+      </c>
+      <c r="C56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>312</v>
+      </c>
+      <c r="C57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>313</v>
+      </c>
+      <c r="C58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>314</v>
+      </c>
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>315</v>
+      </c>
+      <c r="C60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>316</v>
+      </c>
+      <c r="C61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>317</v>
+      </c>
+      <c r="C62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>318</v>
+      </c>
+      <c r="C63" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>319</v>
+      </c>
+      <c r="C64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>320</v>
+      </c>
+      <c r="C65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>321</v>
+      </c>
+      <c r="C66" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>322</v>
+      </c>
+      <c r="C67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>323</v>
+      </c>
+      <c r="C68" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>324</v>
+      </c>
+      <c r="C69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>325</v>
+      </c>
+      <c r="C70" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>327</v>
+      </c>
+      <c r="C71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>328</v>
+      </c>
+      <c r="C72" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>329</v>
+      </c>
+      <c r="C73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>330</v>
+      </c>
+      <c r="C74" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>331</v>
+      </c>
+      <c r="C75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>332</v>
+      </c>
+      <c r="C76" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>333</v>
+      </c>
+      <c r="C77" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>335</v>
+      </c>
+      <c r="C78" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>336</v>
+      </c>
+      <c r="C79" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>337</v>
+      </c>
+      <c r="C80" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>339</v>
+      </c>
+      <c r="C81" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>341</v>
+      </c>
+      <c r="C82" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>343</v>
+      </c>
+      <c r="C83" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>344</v>
+      </c>
+      <c r="C84" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>345</v>
+      </c>
+      <c r="C85" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>346</v>
+      </c>
+      <c r="C86" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>347</v>
+      </c>
+      <c r="C87" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>348</v>
+      </c>
+      <c r="C88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>349</v>
+      </c>
+      <c r="C89" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>350</v>
+      </c>
+      <c r="C90" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>351</v>
+      </c>
+      <c r="C91" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>353</v>
+      </c>
+      <c r="C92" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>355</v>
+      </c>
+      <c r="C93" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>356</v>
+      </c>
+      <c r="C94" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>357</v>
+      </c>
+      <c r="C95" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>359</v>
+      </c>
+      <c r="C96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D96" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="61" thickBot="1">
-      <c r="A10" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" s="41">
-        <v>5720001</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="38">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>360</v>
+      </c>
+      <c r="C97" t="s">
+        <v>161</v>
+      </c>
+      <c r="D97" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="76" thickBot="1">
-      <c r="A11" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="B11" s="41">
-        <v>2231000221105</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" s="38">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>361</v>
+      </c>
+      <c r="C98" t="s">
+        <v>162</v>
+      </c>
+      <c r="D98" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="46" thickBot="1">
-      <c r="A12" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12" s="41">
-        <v>774893001</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="46" thickBot="1">
-      <c r="A13" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" s="41">
-        <v>774893001</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="D13" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="61" thickBot="1">
-      <c r="A14" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" s="41">
-        <v>871919004</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="91" thickBot="1">
-      <c r="A15" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" s="38">
-        <v>1</v>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>362</v>
+      </c>
+      <c r="C99" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>363</v>
+      </c>
+      <c r="C100" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>364</v>
+      </c>
+      <c r="C101" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>365</v>
+      </c>
+      <c r="C102" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>367</v>
+      </c>
+      <c r="C103" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>368</v>
+      </c>
+      <c r="C104" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -4928,21 +6720,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4040E8E-EB16-2240-A9EA-A7E4A1B5F002}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="176">
+    <row r="1" spans="1:10" ht="176" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
@@ -4952,26 +6744,26 @@
       <c r="C1" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="46" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="176" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -4982,8 +6774,24 @@
         <f>3/99</f>
         <v>3.0303030303030304E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="E2" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="J2" s="46"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -4995,7 +6803,7 @@
         <v>0.32323232323232326</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -5006,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -5018,7 +6826,7 @@
         <v>0.40404040404040403</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -5030,7 +6838,7 @@
         <v>0.24242424242424243</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>167</v>
       </c>
